--- a/students.xlsx
+++ b/students.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,30 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>Иванов</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Малиников</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Иван</t>
         </is>
       </c>
     </row>
